--- a/2023/serbia_prva-liga_2023-2024.xlsx
+++ b/2023/serbia_prva-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vrsac</t>
+          <t>Smederevo</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>FK Indjija</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.71</v>
+        <v>2.74</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.71</v>
+        <v>2.74</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.81</v>
+        <v>2.75</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2.83</v>
+        <v>2.76</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/vrsac-kolubara/rVQRcbII/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/smederevo-indjija/rR4gggd8/</t>
         </is>
       </c>
     </row>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Vrsac</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>RFK Novi Sad</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.76</v>
+        <v>2.71</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 13:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>2.71</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>05/08/2023 17:25</t>
+          <t>05/08/2023 13:12</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.15</v>
+        <v>2.81</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 13:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4.59</v>
+        <v>2.83</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>05/08/2023 17:25</t>
+          <t>05/08/2023 15:33</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.94</v>
+        <v>2.53</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 13:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>5.11</v>
+        <v>2.53</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>05/08/2023 17:25</t>
+          <t>05/08/2023 13:12</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/jedinstvo-ub-rfk-novi-sad/EFrxoV3l/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/vrsac-kolubara/rVQRcbII/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Smederevo</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>FK Indjija</t>
+          <t>RFK Novi Sad</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.74</v>
+        <v>1.76</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>05/08/2023 13:12</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.74</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>05/08/2023 13:12</t>
+          <t>05/08/2023 17:25</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>05/08/2023 13:12</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2.76</v>
+        <v>4.59</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>05/08/2023 15:33</t>
+          <t>05/08/2023 17:25</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.56</v>
+        <v>3.94</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>05/08/2023 13:12</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.56</v>
+        <v>5.11</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>05/08/2023 13:12</t>
+          <t>05/08/2023 17:25</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/smederevo-indjija/rR4gggd8/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/jedinstvo-ub-rfk-novi-sad/EFrxoV3l/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Radnicki Beograd</t>
+          <t>Mladost GAT</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Dubocica</t>
+          <t>Radnicki S. Mitrovica</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.12</v>
+        <v>3.27</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.34</v>
+        <v>3.31</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>06/08/2023 16:36</t>
+          <t>06/08/2023 16:39</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.89</v>
+        <v>4.28</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.11</v>
+        <v>5.05</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>06/08/2023 16:38</t>
+          <t>06/08/2023 16:39</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/radnicki-beograd-dubocica/fRaZqkJf/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/mladost-gat-radnicki-s-mitrovica/MH3chDBE/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mladost GAT</t>
+          <t>Radnicki Beograd</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Radnicki S. Mitrovica</t>
+          <t>Dubocica</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.65</v>
+        <v>2.06</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.27</v>
+        <v>3.12</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.31</v>
+        <v>3.34</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>06/08/2023 16:39</t>
+          <t>06/08/2023 16:36</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.28</v>
+        <v>3.89</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5.05</v>
+        <v>3.11</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>06/08/2023 16:39</t>
+          <t>06/08/2023 16:38</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/mladost-gat-radnicki-s-mitrovica/MH3chDBE/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/radnicki-beograd-dubocica/fRaZqkJf/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>RFK Novi Sad</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Metalac</t>
+          <t>Radnicki Beograd</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12/08/2023 23:08</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.83</v>
+        <v>2.52</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 17:15</t>
+          <t>13/08/2023 16:46</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.15</v>
+        <v>3.13</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>12/08/2023 23:08</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.62</v>
+        <v>3.21</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 17:15</t>
+          <t>13/08/2023 17:01</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.85</v>
+        <v>3.68</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>12/08/2023 23:08</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.52</v>
+        <v>2.52</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 17:15</t>
+          <t>13/08/2023 16:46</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/ofk-beograd-metalac/rmtU5WuE/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/rfk-novi-sad-radnicki-beograd/SvbsrTm7/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>RFK Novi Sad</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Radnicki Beograd</t>
+          <t>Metalac</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 23:08</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.52</v>
+        <v>1.83</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:46</t>
+          <t>13/08/2023 17:15</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 23:08</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.21</v>
+        <v>3.62</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:01</t>
+          <t>13/08/2023 17:15</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.68</v>
+        <v>3.85</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 23:08</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.52</v>
+        <v>3.52</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:46</t>
+          <t>13/08/2023 17:15</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/rfk-novi-sad-radnicki-beograd/SvbsrTm7/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/ofk-beograd-metalac/rmtU5WuE/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sloboda</t>
+          <t>Macva</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Radnicki S. Mitrovica</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.58</v>
+        <v>2.14</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>19/08/2023 09:21</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.84</v>
+        <v>2.14</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19/08/2023 18:40</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.84</v>
+        <v>2.75</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>19/08/2023 09:21</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>19/08/2023 18:40</t>
+          <t>19/08/2023 17:02</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.68</v>
+        <v>3.17</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>19/08/2023 09:21</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.41</v>
+        <v>3.17</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>19/08/2023 18:40</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/sloboda-kolubara/bw9EL1AP/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/macva-sabac-radnicki-s-mitrovica/YVwCc8mf/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Metalac</t>
+          <t>Sloboda</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.81</v>
+        <v>2.58</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,48 +2160,48 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.81</v>
+        <v>2.84</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>19/08/2023 18:40</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>19/08/2023 09:21</t>
         </is>
       </c>
-      <c r="N19" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>19/08/2023 18:40</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>19/08/2023 09:21</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>19/08/2023 17:06</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>19/08/2023 09:21</t>
-        </is>
-      </c>
       <c r="T19" t="n">
-        <v>4.18</v>
+        <v>2.41</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>19/08/2023 09:21</t>
+          <t>19/08/2023 18:40</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/metalac-tekstilac-odzaci/ShwGdS20/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/sloboda-kolubara/bw9EL1AP/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Macva</t>
+          <t>Metalac</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Radnicki S. Mitrovica</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.14</v>
+        <v>1.81</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 09:21</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.14</v>
+        <v>1.81</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 09:21</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.75</v>
+        <v>3.12</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 09:21</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2.83</v>
+        <v>3.14</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 17:02</t>
+          <t>19/08/2023 17:06</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.17</v>
+        <v>4.18</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 09:21</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.17</v>
+        <v>4.18</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 09:21</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/macva-sabac-radnicki-s-mitrovica/YVwCc8mf/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/metalac-tekstilac-odzaci/ShwGdS20/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Radnicki Beograd</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.27</v>
+        <v>1.68</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.33</v>
+        <v>1.49</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>2.85</v>
+        <v>3.29</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>2.88</v>
+        <v>3.84</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>27/08/2023 15:59</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.04</v>
+        <v>4.48</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.04</v>
+        <v>5.78</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>27/08/2023 11:43</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/tekstilac-odzaci-jedinstvo-ub/Sjnv1sfn/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/ofk-beograd-radnicki-beograd/Emrz2Nvt/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Radnicki Beograd</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.68</v>
+        <v>2.27</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.49</v>
+        <v>2.33</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.29</v>
+        <v>2.85</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>27/08/2023 15:59</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.48</v>
+        <v>3.04</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>5.78</v>
+        <v>3.04</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>27/08/2023 11:43</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/ofk-beograd-radnicki-beograd/Emrz2Nvt/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/tekstilac-odzaci-jedinstvo-ub/Sjnv1sfn/</t>
         </is>
       </c>
     </row>
@@ -3425,30 +3425,30 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vrsac</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>FK Indjija</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.27</v>
+        <v>2.34</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.71</v>
+        <v>2.12</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3456,11 +3456,11 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2.81</v>
+        <v>2.84</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -3468,19 +3468,19 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:03</t>
+          <t>02/09/2023 16:57</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.86</v>
+        <v>2.99</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.61</v>
+        <v>3.54</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/vrsac-indjija/zNYfcagB/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/jedinstvo-ub-kolubara/8CfpGuYn/</t>
         </is>
       </c>
     </row>
@@ -3517,30 +3517,30 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Vrsac</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>FK Indjija</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.34</v>
+        <v>2.27</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.12</v>
+        <v>2.71</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,11 +3548,11 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>2.84</v>
+        <v>2.81</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -3560,19 +3560,19 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>02/09/2023 16:57</t>
+          <t>02/09/2023 16:03</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.99</v>
+        <v>2.86</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.54</v>
+        <v>2.61</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/jedinstvo-ub-kolubara/8CfpGuYn/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/vrsac-indjija/zNYfcagB/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>RFK Novi Sad</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Dubocica</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
       <c r="J45" t="n">
-        <v>2.23</v>
+        <v>1.22</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>10/09/2023 14:10</t>
+          <t>10/09/2023 14:11</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.85</v>
+        <v>1.1</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>10/09/2023 16:21</t>
+          <t>10/09/2023 16:27</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3</v>
+        <v>5.09</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>10/09/2023 14:10</t>
+          <t>10/09/2023 14:11</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.11</v>
+        <v>7.91</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>10/09/2023 16:21</t>
+          <t>10/09/2023 16:27</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.03</v>
+        <v>10.53</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>10/09/2023 14:10</t>
+          <t>10/09/2023 14:11</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.07</v>
+        <v>20.12</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>10/09/2023 16:21</t>
+          <t>10/09/2023 16:27</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/tekstilac-odzaci-dubocica/WllZAINA/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/ofk-beograd-rfk-novi-sad/lQbUBb84/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>Mladost GAT</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>RFK Novi Sad</t>
+          <t>Sloboda</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>10/09/2023 14:11</t>
+          <t>10/09/2023 14:12</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.1</v>
+        <v>1.63</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>10/09/2023 16:27</t>
+          <t>10/09/2023 14:12</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>5.09</v>
+        <v>3.34</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>10/09/2023 14:11</t>
+          <t>10/09/2023 14:12</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>7.91</v>
+        <v>3.36</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>10/09/2023 16:27</t>
+          <t>10/09/2023 14:34</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>10.53</v>
+        <v>5.04</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>10/09/2023 14:11</t>
+          <t>10/09/2023 14:12</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>20.12</v>
+        <v>5.04</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>10/09/2023 16:27</t>
+          <t>10/09/2023 14:12</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/ofk-beograd-rfk-novi-sad/lQbUBb84/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/mladost-gat-sloboda/I5jo8G7T/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Mladost GAT</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Dubocica</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Sloboda</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
       <c r="J47" t="n">
-        <v>1.63</v>
+        <v>2.23</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>10/09/2023 14:12</t>
+          <t>10/09/2023 14:10</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>10/09/2023 14:12</t>
+          <t>10/09/2023 16:21</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.34</v>
+        <v>3</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>10/09/2023 14:12</t>
+          <t>10/09/2023 14:10</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.36</v>
+        <v>3.11</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>10/09/2023 14:34</t>
+          <t>10/09/2023 16:21</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>5.04</v>
+        <v>3.03</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>10/09/2023 14:12</t>
+          <t>10/09/2023 14:10</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>5.04</v>
+        <v>4.07</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>10/09/2023 14:12</t>
+          <t>10/09/2023 16:21</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/mladost-gat-sloboda/I5jo8G7T/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/tekstilac-odzaci-dubocica/WllZAINA/</t>
         </is>
       </c>
     </row>
@@ -5606,6 +5606,282 @@
       <c r="V56" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/prva-liga/jedinstvo-ub-smederevo/d6j0PHx4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>prva-liga</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45191.66666666666</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>FK Indjija</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>OFK Beograd</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>21/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>22/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>21/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>22/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>21/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>22/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/indjija-ofk-beograd/QorHLZyT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>prva-liga</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45191.79166666666</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kolubara</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>RFK Novi Sad</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>21/09/2023 06:13</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:35</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>21/09/2023 06:13</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:35</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>21/09/2023 06:13</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:35</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/kolubara-rfk-novi-sad/rVncDwI5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>prva-liga</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45191.79166666666</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Macva</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Sloboda</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>21/09/2023 06:13</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>22/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>21/09/2023 06:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>22/09/2023 17:04</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>21/09/2023 06:13</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>22/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/macva-sabac-sloboda/pj1uM3m9/</t>
         </is>
       </c>
     </row>

--- a/2023/serbia_prva-liga_2023-2024.xlsx
+++ b/2023/serbia_prva-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>RFK Novi Sad</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Radnicki Beograd</t>
+          <t>Metalac</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 23:08</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.52</v>
+        <v>1.83</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 16:46</t>
+          <t>13/08/2023 17:15</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 23:08</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.21</v>
+        <v>3.62</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 17:01</t>
+          <t>13/08/2023 17:15</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.68</v>
+        <v>3.85</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>12/08/2023 23:08</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.52</v>
+        <v>3.52</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 16:46</t>
+          <t>13/08/2023 17:15</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/rfk-novi-sad-radnicki-beograd/SvbsrTm7/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/ofk-beograd-metalac/rmtU5WuE/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>RFK Novi Sad</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Metalac</t>
+          <t>Radnicki Beograd</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12/08/2023 23:08</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.83</v>
+        <v>2.52</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:15</t>
+          <t>13/08/2023 16:46</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.15</v>
+        <v>3.13</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>12/08/2023 23:08</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.62</v>
+        <v>3.21</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:15</t>
+          <t>13/08/2023 17:01</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.85</v>
+        <v>3.68</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>12/08/2023 23:08</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.52</v>
+        <v>2.52</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:15</t>
+          <t>13/08/2023 16:46</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/ofk-beograd-metalac/rmtU5WuE/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/rfk-novi-sad-radnicki-beograd/SvbsrTm7/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Macva</t>
+          <t>Metalac</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Radnicki S. Mitrovica</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.14</v>
+        <v>1.81</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 09:21</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.14</v>
+        <v>1.81</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 09:21</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.75</v>
+        <v>3.12</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 09:21</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2.83</v>
+        <v>3.14</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>19/08/2023 17:02</t>
+          <t>19/08/2023 17:06</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.17</v>
+        <v>4.18</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 09:21</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.17</v>
+        <v>4.18</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>18/08/2023 07:12</t>
+          <t>19/08/2023 09:21</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/macva-sabac-radnicki-s-mitrovica/YVwCc8mf/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/metalac-tekstilac-odzaci/ShwGdS20/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sloboda</t>
+          <t>Macva</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Radnicki S. Mitrovica</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.58</v>
+        <v>2.14</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>19/08/2023 09:21</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.84</v>
+        <v>2.14</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19/08/2023 18:40</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.84</v>
+        <v>2.75</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>19/08/2023 09:21</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>19/08/2023 18:40</t>
+          <t>19/08/2023 17:02</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.68</v>
+        <v>3.17</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>19/08/2023 09:21</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.41</v>
+        <v>3.17</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>19/08/2023 18:40</t>
+          <t>18/08/2023 07:12</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/sloboda-kolubara/bw9EL1AP/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/macva-sabac-radnicki-s-mitrovica/YVwCc8mf/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Metalac</t>
+          <t>Sloboda</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.81</v>
+        <v>2.58</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,48 +2252,48 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.81</v>
+        <v>2.84</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>19/08/2023 18:40</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>19/08/2023 09:21</t>
         </is>
       </c>
-      <c r="N20" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>19/08/2023 18:40</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S20" t="inlineStr">
         <is>
           <t>19/08/2023 09:21</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>19/08/2023 17:06</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>19/08/2023 09:21</t>
-        </is>
-      </c>
       <c r="T20" t="n">
-        <v>4.18</v>
+        <v>2.41</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:21</t>
+          <t>19/08/2023 18:40</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/metalac-tekstilac-odzaci/ShwGdS20/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/sloboda-kolubara/bw9EL1AP/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Smederevo</t>
+          <t>FK Indjija</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Macva</t>
+          <t>RFK Novi Sad</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>26/08/2023 13:43</t>
+          <t>25/08/2023 08:13</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.25</v>
+        <v>1.34</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:45</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.15</v>
+        <v>3.74</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>26/08/2023 13:43</t>
+          <t>25/08/2023 08:13</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2.92</v>
+        <v>4.28</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:45</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.97</v>
+        <v>5.1</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>26/08/2023 13:43</t>
+          <t>25/08/2023 08:13</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.14</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:45</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/smederevo-macva-sabac/l6zmaLOb/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/indjija-rfk-novi-sad/OKWOf6XC/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FK Indjija</t>
+          <t>Smederevo</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>RFK Novi Sad</t>
+          <t>Macva</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>25/08/2023 08:13</t>
+          <t>26/08/2023 13:43</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.34</v>
+        <v>2.25</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>26/08/2023 16:45</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.74</v>
+        <v>3.15</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>25/08/2023 08:13</t>
+          <t>26/08/2023 13:43</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.28</v>
+        <v>2.92</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>26/08/2023 16:45</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>5.1</v>
+        <v>3.97</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>25/08/2023 08:13</t>
+          <t>26/08/2023 13:43</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>8.119999999999999</v>
+        <v>3.14</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>26/08/2023 16:45</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/indjija-rfk-novi-sad/OKWOf6XC/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/smederevo-macva-sabac/l6zmaLOb/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>Graficar Beograd</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Radnicki Beograd</t>
+          <t>Dubocica</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,48 +2988,48 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.49</v>
+        <v>1.73</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>27/08/2023 16:49</t>
         </is>
       </c>
       <c r="N28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>27/08/2023 11:43</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
         <v>3.29</v>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>27/08/2023 16:49</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="S28" t="inlineStr">
         <is>
           <t>27/08/2023 11:43</t>
         </is>
       </c>
-      <c r="P28" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>27/08/2023 16:58</t>
-        </is>
-      </c>
-      <c r="R28" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>27/08/2023 11:43</t>
-        </is>
-      </c>
       <c r="T28" t="n">
-        <v>5.78</v>
+        <v>4.45</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>27/08/2023 16:58</t>
+          <t>27/08/2023 16:49</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/ofk-beograd-radnicki-beograd/Emrz2Nvt/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/graficar-beograd-dubocica/2BVSgQnJ/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Graficar Beograd</t>
+          <t>Mladost GAT</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dubocica</t>
+          <t>Vrsac</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27/08/2023 16:49</t>
+          <t>27/08/2023 16:51</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.3</v>
+        <v>3.27</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.29</v>
+        <v>3.07</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>27/08/2023 16:49</t>
+          <t>27/08/2023 16:51</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.38</v>
+        <v>4.59</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.45</v>
+        <v>4.62</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>27/08/2023 16:49</t>
+          <t>27/08/2023 16:51</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/graficar-beograd-dubocica/2BVSgQnJ/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/mladost-gat-vrsac/dWZjbuv5/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mladost GAT</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Vrsac</t>
+          <t>Radnicki Beograd</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.78</v>
+        <v>1.49</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:51</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.07</v>
+        <v>3.84</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:51</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.59</v>
+        <v>4.48</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.62</v>
+        <v>5.78</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>27/08/2023 16:51</t>
+          <t>27/08/2023 16:58</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/mladost-gat-vrsac/dWZjbuv5/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/ofk-beograd-radnicki-beograd/Emrz2Nvt/</t>
         </is>
       </c>
     </row>
@@ -3425,30 +3425,30 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Vrsac</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>FK Indjija</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>2.34</v>
+        <v>2.27</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.12</v>
+        <v>2.71</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3456,11 +3456,11 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2.84</v>
+        <v>2.81</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -3468,19 +3468,19 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:57</t>
+          <t>02/09/2023 16:03</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.99</v>
+        <v>2.86</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>02/09/2023 15:12</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.54</v>
+        <v>2.61</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/jedinstvo-ub-kolubara/8CfpGuYn/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/vrsac-indjija/zNYfcagB/</t>
         </is>
       </c>
     </row>
@@ -3517,30 +3517,30 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vrsac</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>FK Indjija</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.27</v>
+        <v>2.34</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.71</v>
+        <v>2.12</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,11 +3548,11 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>2.81</v>
+        <v>2.84</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -3560,19 +3560,19 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>02/09/2023 16:03</t>
+          <t>02/09/2023 16:57</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.86</v>
+        <v>2.99</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 15:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.61</v>
+        <v>3.54</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/vrsac-indjija/zNYfcagB/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/jedinstvo-ub-kolubara/8CfpGuYn/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>FK Indjija</t>
+          <t>Radnicki S. Mitrovica</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Graficar Beograd</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.09</v>
+        <v>2.33</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>09/09/2023 13:14</t>
+          <t>09/09/2023 16:27</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.12</v>
+        <v>2.88</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>09/09/2023 14:31</t>
+          <t>09/09/2023 15:46</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.16</v>
+        <v>3.23</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.33</v>
+        <v>2.89</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>09/09/2023 13:14</t>
+          <t>09/09/2023 16:27</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/indjija-graficar-beograd/xjeQCvgb/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/radnicki-s-mitrovica-jedinstvo-ub/AumwAxwH/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Radnicki S. Mitrovica</t>
+          <t>FK Indjija</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Graficar Beograd</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.33</v>
+        <v>2.09</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:27</t>
+          <t>09/09/2023 13:14</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>2.88</v>
+        <v>3.12</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 15:46</t>
+          <t>09/09/2023 14:31</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.23</v>
+        <v>3.16</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.89</v>
+        <v>3.33</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:27</t>
+          <t>09/09/2023 13:14</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/serbia/prva-liga/radnicki-s-mitrovica-jedinstvo-ub/AumwAxwH/</t>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/indjija-graficar-beograd/xjeQCvgb/</t>
         </is>
       </c>
     </row>
@@ -5882,6 +5882,466 @@
       <c r="V59" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/serbia/prva-liga/macva-sabac-sloboda/pj1uM3m9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>prva-liga</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Mladost GAT</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Jedinstvo U.</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>23/09/2023 05:06</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:38</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/mladost-gat-jedinstvo-ub/vgbXNPId/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>prva-liga</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Radnicki S. Mitrovica</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Dubocica</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/radnicki-s-mitrovica-dubocica/dUYnGDaj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>prva-liga</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Smederevo</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Radnicki Beograd</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:38</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:38</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/smederevo-radnicki-beograd/zLXjFXEd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>prva-liga</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Tekstilac Odzaci</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Graficar Beograd</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:48</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:48</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/tekstilac-odzaci-graficar-beograd/SfUrHgpp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>serbia</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>prva-liga</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Vrsac</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Metalac</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>22/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>23/09/2023 08:37</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>22/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:03</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>22/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>23/09/2023 08:37</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/serbia/prva-liga/vrsac-metalac/jT1yNqY2/</t>
         </is>
       </c>
     </row>
